--- a/Voto estratégico v.1.0.xlsx
+++ b/Voto estratégico v.1.0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="238">
   <si>
     <t>Provincias</t>
   </si>
@@ -590,9 +590,6 @@
     <t>162,3 c)</t>
   </si>
   <si>
-    <t>Selecciona provincia</t>
-  </si>
-  <si>
     <t>Diputados 2019</t>
   </si>
   <si>
@@ -738,6 +735,12 @@
   </si>
   <si>
     <t>Versió 1,0</t>
+  </si>
+  <si>
+    <t>Cincunscripción</t>
+  </si>
+  <si>
+    <t>Selecciona circunscripción electoral</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1430,7 @@
   <dimension ref="B1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,24 +1444,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
-        <v>190</v>
-      </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J2">
         <v>2016</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="4" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="29">
         <v>0.7</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1514,48 +1517,48 @@
         <v>4</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="22">
         <f>E4*E3</f>
         <v>210341.59999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="22">
         <f>E6*0.03</f>
         <v>6310.2479999999987</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="25" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1582,7 +1585,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="34">
         <v>0.15</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="34">
         <v>0.03</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="34">
         <v>0</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="34">
         <v>0.02</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="34">
         <v>0.01</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="34">
         <v>0</v>
@@ -1659,7 +1662,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="34">
         <v>0</v>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="34">
         <v>0</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -1692,13 +1695,13 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1732,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" s="21">
         <f>IF(D14=0,ROUND(C14*E$6,0),D14)</f>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="21">
         <f>IF(D16=0,ROUND(C16*E$6,0),D16)</f>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="21">
         <f>IF(D17=0,ROUND(C17*E$6,0),D17)</f>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="21">
         <f>IF(D18=0,ROUND(C18*E$6,0),D18)</f>
@@ -1794,7 +1797,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="21">
         <f>IF(D19=0,ROUND(C19*E$6,0),D19)</f>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="21">
         <f>IF(D20=0,ROUND(C20*E$6,0),D20)</f>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="21">
         <f>IF(D21=0,ROUND(C21*E$6,0),D21)</f>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="21">
         <f>IF(D22=0,ROUND(C22*E$6,0),D22)</f>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C37" s="21">
         <f>IF(D23=0,ROUND(C23*E$6,0),D23)</f>
@@ -1859,20 +1862,27 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>B3</f>
+        <v>Salamanca</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -1895,7 +1905,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C44" s="21">
         <f>'Aplicación D''Hont'!B117</f>
@@ -1913,7 +1923,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="21">
         <f>'Aplicación D''Hont'!B119</f>
@@ -1922,7 +1932,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="21" t="str">
         <f>'Aplicación D''Hont'!B120</f>
@@ -1931,7 +1941,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="21">
         <f>'Aplicación D''Hont'!B121</f>
@@ -1940,7 +1950,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="21">
         <f>'Aplicación D''Hont'!B122</f>
@@ -1949,7 +1959,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="21" t="str">
         <f>'Aplicación D''Hont'!B123</f>
@@ -1958,7 +1968,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="21" t="str">
         <f>'Aplicación D''Hont'!B124</f>
@@ -1967,7 +1977,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="21" t="str">
         <f>'Aplicación D''Hont'!B125</f>
@@ -1976,7 +1986,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="21" t="str">
         <f>'Aplicación D''Hont'!B126</f>
@@ -2087,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5042,12 +5052,12 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5502,7 +5512,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <f>IF('Voto estratégico'!$C28&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C28,0)</f>
@@ -5667,7 +5677,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <f>IF('Voto estratégico'!$C29&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C29,0)</f>
@@ -5832,7 +5842,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7">
         <f>IF('Voto estratégico'!$C30&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C30,0)</f>
@@ -5997,7 +6007,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <f>IF('Voto estratégico'!$C31&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C31,0)</f>
@@ -6162,7 +6172,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <f>IF('Voto estratégico'!$C32&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C32,0)</f>
@@ -6327,7 +6337,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <f>IF('Voto estratégico'!$C33&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C33,0)</f>
@@ -6492,7 +6502,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <f>IF('Voto estratégico'!$C34&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C34,0)</f>
@@ -6657,7 +6667,7 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <f>IF('Voto estratégico'!$C35&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C35,0)</f>
@@ -6822,7 +6832,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <f>IF('Voto estratégico'!$C36&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C36,0)</f>
@@ -6987,7 +6997,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14">
         <f>IF('Voto estratégico'!$C37&gt;'Voto estratégico'!$E$7,'Voto estratégico'!$C37,0)</f>
@@ -7152,10 +7162,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.25">
@@ -7700,7 +7710,7 @@
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
@@ -7863,114 +7873,114 @@
         <v>17</v>
       </c>
       <c r="AP19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AS19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AU19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AY19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BD19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BG19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BH19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BI19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BJ19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BK19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BL19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BM19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BN19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BO19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BP19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BQ19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BR19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BS19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BT19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BU19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BW19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BX19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
@@ -8133,114 +8143,114 @@
         <v>17</v>
       </c>
       <c r="AP20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BA20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BC20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BD20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BG20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BI20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BM20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BN20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BQ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BR20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BS20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BT20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BU20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BV20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BW20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BX20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
@@ -8403,114 +8413,114 @@
         <v>17</v>
       </c>
       <c r="AP21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AR21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AS21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AT21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AU21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AV21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AW21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AX21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AY21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BA21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BB21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BC21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BD21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BE21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BF21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BG21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BH21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BI21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BJ21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BK21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BL21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BM21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BN21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BP21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BQ21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BR21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BS21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BT21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BU21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BV21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BW21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BX21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
@@ -8673,114 +8683,114 @@
         <v>17</v>
       </c>
       <c r="AP22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AU22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AV22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BA22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BC22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BE22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BF22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BG22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BI22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BJ22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BL22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BM22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BN22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BO22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BQ22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BR22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BS22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BV22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BX22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
@@ -8943,114 +8953,114 @@
         <v>17</v>
       </c>
       <c r="AP23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AT23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AU23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AV23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AW23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AX23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AY23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BA23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BB23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BC23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BD23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BE23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BF23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BG23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BH23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BI23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BJ23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BK23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BL23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BM23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BN23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BO23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BP23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BQ23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BR23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BS23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BT23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BU23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BV23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BW23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BX23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -9213,114 +9223,114 @@
         <v>17</v>
       </c>
       <c r="AP24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AT24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AU24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AV24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BA24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BB24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BC24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BD24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BE24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BF24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BG24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BH24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BI24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BK24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BL24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BM24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BN24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BO24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BR24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BS24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BT24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BU24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BV24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BW24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BX24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -9483,114 +9493,114 @@
         <v>17</v>
       </c>
       <c r="AP25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AT25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AU25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AX25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BA25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BB25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BC25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BD25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BE25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BF25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BG25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BH25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BI25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BJ25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BK25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BL25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BM25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BO25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BP25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BQ25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BR25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BS25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BT25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BU25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BX25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -9753,114 +9763,114 @@
         <v>17</v>
       </c>
       <c r="AP26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AS26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AT26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AU26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AX26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AY26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BA26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BB26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BC26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BD26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BE26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BF26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BG26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BH26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BI26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BJ26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BK26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BN26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BO26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BP26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BQ26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BR26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BS26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BU26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BV26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BX26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -10023,114 +10033,114 @@
         <v>17</v>
       </c>
       <c r="AP27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AQ27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AS27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AW27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AX27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AY27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AZ27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BA27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BB27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BC27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BD27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BE27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BF27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BG27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BH27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BI27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BJ27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BK27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BL27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BM27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BN27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BO27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BP27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BQ27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BR27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BS27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BT27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BU27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BV27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BX27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -10293,117 +10303,117 @@
         <v>17</v>
       </c>
       <c r="AP28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AS28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AT28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AU28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AV28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AW28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AX28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AY28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AZ28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BA28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BB28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BC28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BD28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BE28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BF28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BG28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BH28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BI28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BJ28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BK28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BL28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BN28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BO28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BP28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BQ28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BR28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BS28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BT28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BU28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BV28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BW28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BX28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:76" x14ac:dyDescent="0.25">
@@ -10738,7 +10748,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33">
         <f>IF(B19&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -10903,7 +10913,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34">
         <f>IF(B20&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11068,7 +11078,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35">
         <f>IF(B21&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11233,7 +11243,7 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36">
         <f>IF(B22&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11398,7 +11408,7 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37">
         <f>IF(B23&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11563,7 +11573,7 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38">
         <f>IF(B24&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11728,7 +11738,7 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39">
         <f>IF(B25&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -11893,7 +11903,7 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40">
         <f>IF(B26&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -12058,7 +12068,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41">
         <f>IF(B27&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -12223,7 +12233,7 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42">
         <f>IF(B28&lt;'Voto estratégico'!$C$3+1,1,0)</f>
@@ -12393,10 +12403,10 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -12419,7 +12429,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
@@ -12437,7 +12447,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
@@ -12446,7 +12456,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
@@ -12455,7 +12465,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
@@ -12464,7 +12474,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
@@ -12473,7 +12483,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
@@ -12482,7 +12492,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
@@ -12491,7 +12501,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56">
         <f t="shared" si="3"/>
@@ -12500,7 +12510,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57">
         <f>SUM(43:43)</f>
@@ -12718,12 +12728,12 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63">
         <f>SUM(B64:AO75)</f>
@@ -13062,7 +13072,7 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66">
         <f>IF(B19='Voto estratégico'!$C$3,B5,0)</f>
@@ -13392,7 +13402,7 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68">
         <f>IF(B21='Voto estratégico'!$C$3,B7,0)</f>
@@ -13557,7 +13567,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69">
         <f>IF(B22='Voto estratégico'!$C$3,B8,0)</f>
@@ -13722,7 +13732,7 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70">
         <f>IF(B23='Voto estratégico'!$C$3,B9,0)</f>
@@ -13887,7 +13897,7 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71">
         <f>IF(B24='Voto estratégico'!$C$3,B10,0)</f>
@@ -14052,7 +14062,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <f>IF(B25='Voto estratégico'!$C$3,B11,0)</f>
@@ -14217,7 +14227,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73">
         <f>IF(B26='Voto estratégico'!$C$3,B12,0)</f>
@@ -14382,7 +14392,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B74">
         <f>IF(B27='Voto estratégico'!$C$3,B13,0)</f>
@@ -14547,7 +14557,7 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B75">
         <f>IF(B28='Voto estratégico'!$C$3,B14,0)</f>
@@ -14712,7 +14722,7 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
@@ -15169,7 +15179,7 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82">
         <f>IF(AND(B5&lt;$B$63,(B$79=1) ),'Voto estratégico'!C28,IF(AND(B5&lt;$B$63,SUM($A82:A82)=0),B5,0))</f>
@@ -15499,7 +15509,7 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B84">
         <f>IF(AND(B7&lt;$B$63,(B$79=1) ),'Voto estratégico'!C30,IF(AND(B7&lt;$B$63,SUM($A84:A84)=0),B7,0))</f>
@@ -15664,7 +15674,7 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85">
         <f>IF(AND(B8&lt;$B$63,(B$79=1) ),'Voto estratégico'!C31,IF(AND(B8&lt;$B$63,SUM($A85:A85)=0),B8,0))</f>
@@ -15829,7 +15839,7 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86">
         <f>IF(AND(B9&lt;$B$63,(B$79=1) ),'Voto estratégico'!C32,IF(AND(B9&lt;$B$63,SUM($A86:A86)=0),B9,0))</f>
@@ -15994,7 +16004,7 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87">
         <f>IF(AND(B10&lt;$B$63,(B$79=1) ),'Voto estratégico'!C33,IF(AND(B10&lt;$B$63,SUM($A87:A87)=0),B10,0))</f>
@@ -16159,7 +16169,7 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88">
         <f>IF(AND(B11&lt;$B$63,(B$79=1) ),'Voto estratégico'!C34,IF(AND(B11&lt;$B$63,SUM($A88:A88)=0),B11,0))</f>
@@ -16324,7 +16334,7 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <f>IF(AND(B12&lt;$B$63,(B$79=1) ),'Voto estratégico'!C35,IF(AND(B12&lt;$B$63,SUM($A89:A89)=0),B12,0))</f>
@@ -16489,7 +16499,7 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B90">
         <f>IF(AND(B13&lt;$B$63,(B$79=1) ),'Voto estratégico'!C36,IF(AND(B13&lt;$B$63,SUM($A90:A90)=0),B13,0))</f>
@@ -16654,7 +16664,7 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B91">
         <f>IF(AND(B14&lt;$B$63,(B$79=1) ),'Voto estratégico'!C37,IF(AND(B14&lt;$B$63,SUM($A91:A91)=0),B14,0))</f>
@@ -16819,7 +16829,7 @@
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
@@ -17284,7 +17294,7 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97">
         <f t="shared" si="9"/>
@@ -17622,7 +17632,7 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B99">
         <f t="shared" si="9"/>
@@ -17791,7 +17801,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B100">
         <f t="shared" si="9"/>
@@ -17960,7 +17970,7 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101">
         <f t="shared" si="9"/>
@@ -18129,7 +18139,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102">
         <f t="shared" si="9"/>
@@ -18298,7 +18308,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103">
         <f t="shared" si="9"/>
@@ -18467,7 +18477,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104">
         <f t="shared" si="9"/>
@@ -18636,7 +18646,7 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105">
         <f t="shared" si="9"/>
@@ -18805,7 +18815,7 @@
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106">
         <f t="shared" si="9"/>
@@ -18974,7 +18984,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -18997,7 +19007,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117">
         <f t="shared" si="21"/>
@@ -19015,7 +19025,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119">
         <f t="shared" si="21"/>
@@ -19024,7 +19034,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" t="str">
         <f>IF(AP100=$B$63,"Este partido ya tiene el último escaño",IF(AP100=0,"Partido sin votos en circunscripción",AP100))</f>
@@ -19033,7 +19043,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121">
         <f t="shared" ref="B121:B126" si="22">IF(AP101=$B$63,"Este partido ya tiene el último escaño",IF(AP101=0,"Partido sin votos en circunscripción",AP101))</f>
@@ -19042,7 +19052,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B122">
         <f t="shared" si="22"/>
@@ -19051,7 +19061,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="22"/>
@@ -19060,7 +19070,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="22"/>
@@ -19069,7 +19079,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="22"/>
@@ -19078,7 +19088,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="22"/>
@@ -19286,13 +19296,13 @@
         <v>172</v>
       </c>
       <c r="AY2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BA2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC2" t="s">
         <v>197</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -19427,25 +19437,25 @@
         <v>135</v>
       </c>
       <c r="AX3" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AY3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="AZ3" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="BA3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB3" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="BB3" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="BC3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD3" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
@@ -19975,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AX7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AY7">
         <v>172199</v>
